--- a/src/test/resources/files/sample-file.xlsx
+++ b/src/test/resources/files/sample-file.xlsx
@@ -8,19 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjordan/Code/sourcegroove/spring-batch-file-layout/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DE1570-60CB-1A46-95E2-A4CDA6A8762D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E88410-0F51-DC4C-949D-2F5F3082B577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="900" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="users-1" sheetId="1" r:id="rId1"/>
+    <sheet name="users-2" sheetId="2" r:id="rId2"/>
+    <sheet name="users-3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>birthYear</t>
+  </si>
   <si>
     <t>USER</t>
   </si>
@@ -41,21 +58,6 @@
   </si>
   <si>
     <t>0002</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-  </si>
-  <si>
-    <t>BIRTH_DATE</t>
   </si>
 </sst>
 </file>
@@ -900,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -911,33 +913,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>28763</v>
@@ -945,16 +947,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>29399</v>
@@ -963,4 +965,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA99871-5ACF-8F43-BD6D-8A9A4A48B2F0}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>28763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4FEDC0-6DF5-7C43-9023-8A72D3FECA15}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>28763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>